--- a/Data_Formatted/EPS_CHANGE_20221028_JPMCAZ_FORMATTED.xlsx
+++ b/Data_Formatted/EPS_CHANGE_20221028_JPMCAZ_FORMATTED.xlsx
@@ -1790,26 +1790,11 @@
       <c r="H29">
         <v>-0.04266160815402043</v>
       </c>
-      <c r="I29">
-        <v>-0.006868188794175809</v>
-      </c>
-      <c r="J29">
-        <v>2.923643</v>
-      </c>
-      <c r="K29">
-        <v>0.2268749475451113</v>
-      </c>
       <c r="O29">
         <v>23.5277463193658</v>
       </c>
-      <c r="P29">
-        <v>11.01972303818716</v>
-      </c>
       <c r="S29">
         <v>-0.03915843276345988</v>
-      </c>
-      <c r="U29">
-        <v>0.01796810289902097</v>
       </c>
       <c r="X29" t="s">
         <v>118</v>
@@ -1840,26 +1825,11 @@
       <c r="H30">
         <v>-0.1825853658536585</v>
       </c>
-      <c r="I30">
-        <v>-0.006868188794175809</v>
-      </c>
-      <c r="J30">
-        <v>2.923643</v>
-      </c>
-      <c r="K30">
-        <v>0.2268749475451113</v>
-      </c>
       <c r="O30">
         <v>8.785569105691057</v>
       </c>
-      <c r="P30">
-        <v>11.01972303818716</v>
-      </c>
       <c r="S30">
         <v>-0.01336559296712238</v>
-      </c>
-      <c r="U30">
-        <v>0.01796810289902097</v>
       </c>
       <c r="X30" t="s">
         <v>119</v>
@@ -1890,26 +1860,11 @@
       <c r="H31">
         <v>0.1305027636524432</v>
       </c>
-      <c r="I31">
-        <v>-0.006868188794175809</v>
-      </c>
-      <c r="J31">
-        <v>2.923643</v>
-      </c>
-      <c r="K31">
-        <v>0.2268749475451113</v>
-      </c>
       <c r="O31">
         <v>9.728056599602034</v>
       </c>
-      <c r="P31">
-        <v>11.01972303818716</v>
-      </c>
       <c r="S31">
         <v>-0.2673727668133168</v>
-      </c>
-      <c r="U31">
-        <v>0.01796810289902097</v>
       </c>
       <c r="X31" t="s">
         <v>120</v>
